--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2405,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2452,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2583,10 +2607,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2630,28 +2654,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2676,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2809,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2856,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2987,10 +3011,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3034,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3080,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3189,10 +3213,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3236,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3282,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3438,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3593,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3640,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3686,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3819,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3866,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3912,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3997,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4044,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4090,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4199,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4246,28 +4270,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4292,28 +4316,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4401,10 +4425,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4448,28 +4472,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4494,28 +4518,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4603,10 +4627,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4650,28 +4674,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4696,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4805,10 +4829,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4852,28 +4876,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4898,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5007,10 +5031,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5054,28 +5078,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5100,28 +5124,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5209,10 +5233,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5256,28 +5280,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5302,28 +5326,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5411,10 +5435,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5458,28 +5482,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5504,28 +5528,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5613,10 +5637,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5660,28 +5684,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5706,28 +5730,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5815,10 +5839,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5862,28 +5886,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5908,28 +5932,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6017,10 +6041,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6064,28 +6088,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6110,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6219,10 +6243,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6266,28 +6290,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6312,28 +6336,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6445,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6492,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6538,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6623,10 +6647,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6670,28 +6694,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6716,28 +6740,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6825,10 +6849,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6872,28 +6896,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6918,28 +6942,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7080,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7103,28 +7127,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7173,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7258,10 +7282,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7305,28 +7329,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7351,28 +7375,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7460,10 +7484,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7507,28 +7531,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7553,28 +7577,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7662,10 +7686,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7709,28 +7733,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7755,28 +7779,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7864,10 +7888,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7911,28 +7935,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7957,28 +7981,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8066,10 +8090,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8113,28 +8137,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8159,28 +8183,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8268,10 +8292,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8315,28 +8339,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8361,28 +8385,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8470,10 +8494,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8517,28 +8541,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8563,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8672,10 +8696,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8719,28 +8743,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8765,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8874,10 +8898,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8921,28 +8945,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8967,28 +8991,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9076,10 +9100,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9123,28 +9147,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9169,28 +9193,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9302,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9349,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9395,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9480,10 +9504,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9527,28 +9551,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9573,28 +9597,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9682,10 +9706,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9729,28 +9753,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9775,28 +9799,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9884,10 +9908,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9931,28 +9955,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9977,28 +10001,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10115,10 +10139,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
